--- a/Week 12_Session Plan.xlsx
+++ b/Week 12_Session Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anchal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GreatLearning Demo Session\Batch 8\wipro_2022_batch_C8_great_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{629C2F2F-149A-4382-A414-6BDAB35343F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F1561929-07D2-46FB-B1C2-C3C34E18654F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Spring Boot Application / Spring Boot AOP</t>
   </si>
@@ -201,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,29 +581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5F089C-B188-47B1-AD99-47301F150DDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -626,42 +625,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -672,50 +671,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -726,87 +725,87 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -817,50 +816,50 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C49" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C50" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C53" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -871,32 +870,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C58" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C59" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C62" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C63" s="3" t="s">
         <v>56</v>
       </c>
